--- a/data/chairs.xlsx
+++ b/data/chairs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\EFSPI\20_workshop\efspiworkshop\workshop\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F6A601-5EE8-47AD-9E7A-BBCC4313A7A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45F90A4-7722-4790-B160-B00DF09E6369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="10">
   <si>
     <t>Year</t>
   </si>
@@ -60,6 +60,12 @@
   </si>
   <si>
     <t>Uli Burger</t>
+  </si>
+  <si>
+    <t>Vivian Lanius</t>
+  </si>
+  <si>
+    <t>UCB</t>
   </si>
 </sst>
 </file>
@@ -380,17 +386,17 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -401,18 +407,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2025</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2024</v>
       </c>
@@ -423,7 +429,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2023</v>
       </c>
@@ -434,7 +440,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2022</v>
       </c>
@@ -445,7 +451,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2021</v>
       </c>
@@ -456,7 +462,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -467,7 +473,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2019</v>
       </c>
@@ -478,7 +484,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2018</v>
       </c>
@@ -489,7 +495,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2017</v>
       </c>
@@ -500,7 +506,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2016</v>
       </c>
